--- a/data/demo_data/breast-cancer/breast-cancer-wisconsin-data-map.xlsx
+++ b/data/demo_data/breast-cancer/breast-cancer-wisconsin-data-map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaca253\Documents\datomatisation\datomatisation-dev\data\breast_cancer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaca253\Documents\datomatisation\datomatisation-dev\data\demo_data\breast-cancer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F07D07B-DF8E-41B6-BC18-98CD560EEAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0AC645-B920-433B-89E2-526962BCE08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30510" yWindow="1710" windowWidth="15240" windowHeight="15225" xr2:uid="{CE0E3E1B-7B97-4C40-8852-A69C1BF1DC77}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CE0E3E1B-7B97-4C40-8852-A69C1BF1DC77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Patient ID</t>
   </si>
@@ -66,33 +66,35 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Measures how similar the shapes of the cells are.</t>
-  </si>
-  <si>
-    <t>Give the patient ID</t>
-  </si>
-  <si>
-    <t>Refers to how strongly tumor cells adhere to each other along the cell margins.</t>
-  </si>
-  <si>
-    <t>Counts the number of cells whose nuclei are visible without cytoplasm.</t>
-  </si>
-  <si>
-    <t>Measures the prominence and size of nucleoli in the cell nuclei.</t>
-  </si>
-  <si>
-    <t>Measures the number of dividing (mitotic) cells.</t>
-  </si>
-  <si>
-    <t>The final diagnostic output.</t>
+    <t>Tumor Cell Adhesion</t>
+  </si>
+  <si>
+    <t>Naked Nuclei</t>
+  </si>
+  <si>
+    <t>Nucleolar Prominence</t>
+  </si>
+  <si>
+    <t>Mitotic Count</t>
+  </si>
+  <si>
+    <t>diagnostic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,8 +122,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,19 +442,20 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="38.7265625" customWidth="1"/>
+    <col min="2" max="2" width="31.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -460,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -468,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -476,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -484,7 +488,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -492,7 +496,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -500,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -508,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
